--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H2">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I2">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J2">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.43851807629244</v>
+        <v>0.04182166666666667</v>
       </c>
       <c r="N2">
-        <v>6.43851807629244</v>
+        <v>0.125465</v>
       </c>
       <c r="O2">
-        <v>0.9594020047918491</v>
+        <v>0.00574831844561694</v>
       </c>
       <c r="P2">
-        <v>0.9594020047918491</v>
+        <v>0.00574831844561694</v>
       </c>
       <c r="Q2">
-        <v>157.7407357085472</v>
+        <v>1.321755443169444</v>
       </c>
       <c r="R2">
-        <v>157.7407357085472</v>
+        <v>11.895798988525</v>
       </c>
       <c r="S2">
-        <v>0.05879391807624872</v>
+        <v>0.0004306190509175481</v>
       </c>
       <c r="T2">
-        <v>0.05879391807624872</v>
+        <v>0.0004306190509175481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H3">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I3">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J3">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.272451928079538</v>
+        <v>0.01883366666666667</v>
       </c>
       <c r="N3">
-        <v>0.272451928079538</v>
+        <v>0.056501</v>
       </c>
       <c r="O3">
-        <v>0.0405979952081509</v>
+        <v>0.002588656123188162</v>
       </c>
       <c r="P3">
-        <v>0.0405979952081509</v>
+        <v>0.002588656123188162</v>
       </c>
       <c r="Q3">
-        <v>6.674947102925008</v>
+        <v>0.5952297795761111</v>
       </c>
       <c r="R3">
-        <v>6.674947102925008</v>
+        <v>5.357068016185</v>
       </c>
       <c r="S3">
-        <v>0.002487919758772888</v>
+        <v>0.0001939218666233004</v>
       </c>
       <c r="T3">
-        <v>0.002487919758772888</v>
+        <v>0.0001939218666233004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.454409900865</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H4">
-        <v>101.454409900865</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I4">
-        <v>0.2537726224880991</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J4">
-        <v>0.2537726224880991</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.43851807629244</v>
+        <v>0.06050133333333333</v>
       </c>
       <c r="N4">
-        <v>6.43851807629244</v>
+        <v>0.181504</v>
       </c>
       <c r="O4">
-        <v>0.9594020047918491</v>
+        <v>0.008315807525232193</v>
       </c>
       <c r="P4">
-        <v>0.9594020047918491</v>
+        <v>0.008315807525232193</v>
       </c>
       <c r="Q4">
-        <v>653.216052066302</v>
+        <v>1.912118120248889</v>
       </c>
       <c r="R4">
-        <v>653.216052066302</v>
+        <v>17.20906308224</v>
       </c>
       <c r="S4">
-        <v>0.2434699627763673</v>
+        <v>0.0006229552482185362</v>
       </c>
       <c r="T4">
-        <v>0.2434699627763673</v>
+        <v>0.0006229552482185362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.454409900865</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H5">
-        <v>101.454409900865</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I5">
-        <v>0.2537726224880991</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J5">
-        <v>0.2537726224880991</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.272451928079538</v>
+        <v>6.767036</v>
       </c>
       <c r="N5">
-        <v>0.272451928079538</v>
+        <v>20.301108</v>
       </c>
       <c r="O5">
-        <v>0.0405979952081509</v>
+        <v>0.9301178303340504</v>
       </c>
       <c r="P5">
-        <v>0.0405979952081509</v>
+        <v>0.9301178303340503</v>
       </c>
       <c r="Q5">
-        <v>27.64144958966244</v>
+        <v>213.8692065625533</v>
       </c>
       <c r="R5">
-        <v>27.64144958966244</v>
+        <v>1924.82285906298</v>
       </c>
       <c r="S5">
-        <v>0.01030265971173173</v>
+        <v>0.06967715187131586</v>
       </c>
       <c r="T5">
-        <v>0.01030265971173173</v>
+        <v>0.06967715187131585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.1892395120903</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H6">
-        <v>65.1892395120903</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I6">
-        <v>0.1630608692628837</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J6">
-        <v>0.1630608692628837</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.43851807629244</v>
+        <v>0.3872683333333333</v>
       </c>
       <c r="N6">
-        <v>6.43851807629244</v>
+        <v>1.161805</v>
       </c>
       <c r="O6">
-        <v>0.9594020047918491</v>
+        <v>0.0532293875719124</v>
       </c>
       <c r="P6">
-        <v>0.9594020047918491</v>
+        <v>0.0532293875719124</v>
       </c>
       <c r="Q6">
-        <v>419.7220969783507</v>
+        <v>12.23944592238055</v>
       </c>
       <c r="R6">
-        <v>419.7220969783507</v>
+        <v>110.155013301425</v>
       </c>
       <c r="S6">
-        <v>0.1564409248739122</v>
+        <v>0.003987529322530283</v>
       </c>
       <c r="T6">
-        <v>0.1564409248739122</v>
+        <v>0.003987529322530283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.1892395120903</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H7">
-        <v>65.1892395120903</v>
+        <v>305.170493</v>
       </c>
       <c r="I7">
-        <v>0.1630608692628837</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J7">
-        <v>0.1630608692628837</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.272451928079538</v>
+        <v>0.04182166666666667</v>
       </c>
       <c r="N7">
-        <v>0.272451928079538</v>
+        <v>0.125465</v>
       </c>
       <c r="O7">
-        <v>0.0405979952081509</v>
+        <v>0.00574831844561694</v>
       </c>
       <c r="P7">
-        <v>0.0405979952081509</v>
+        <v>0.00574831844561694</v>
       </c>
       <c r="Q7">
-        <v>17.7609339951078</v>
+        <v>4.254246211582777</v>
       </c>
       <c r="R7">
-        <v>17.7609339951078</v>
+        <v>38.28821590424499</v>
       </c>
       <c r="S7">
-        <v>0.006619944388971473</v>
+        <v>0.001386004858514889</v>
       </c>
       <c r="T7">
-        <v>0.006619944388971473</v>
+        <v>0.001386004858514889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>70.32815958759041</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H8">
-        <v>70.32815958759041</v>
+        <v>305.170493</v>
       </c>
       <c r="I8">
-        <v>0.1759150884692317</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J8">
-        <v>0.1759150884692317</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.43851807629244</v>
+        <v>0.01883366666666667</v>
       </c>
       <c r="N8">
-        <v>6.43851807629244</v>
+        <v>0.056501</v>
       </c>
       <c r="O8">
-        <v>0.9594020047918491</v>
+        <v>0.002588656123188162</v>
       </c>
       <c r="P8">
-        <v>0.9594020047918491</v>
+        <v>0.002588656123188162</v>
       </c>
       <c r="Q8">
-        <v>452.8091267770803</v>
+        <v>1.915826447221445</v>
       </c>
       <c r="R8">
-        <v>452.8091267770803</v>
+        <v>17.242438024993</v>
       </c>
       <c r="S8">
-        <v>0.1687732885505164</v>
+        <v>0.0006241633962535349</v>
       </c>
       <c r="T8">
-        <v>0.1687732885505164</v>
+        <v>0.0006241633962535348</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>70.32815958759041</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H9">
-        <v>70.32815958759041</v>
+        <v>305.170493</v>
       </c>
       <c r="I9">
-        <v>0.1759150884692317</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J9">
-        <v>0.1759150884692317</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.272451928079538</v>
+        <v>0.06050133333333333</v>
       </c>
       <c r="N9">
-        <v>0.272451928079538</v>
+        <v>0.181504</v>
       </c>
       <c r="O9">
-        <v>0.0405979952081509</v>
+        <v>0.008315807525232193</v>
       </c>
       <c r="P9">
-        <v>0.0405979952081509</v>
+        <v>0.008315807525232193</v>
       </c>
       <c r="Q9">
-        <v>19.16104267792445</v>
+        <v>6.154407240163555</v>
       </c>
       <c r="R9">
-        <v>19.16104267792445</v>
+        <v>55.389665161472</v>
       </c>
       <c r="S9">
-        <v>0.007141799918715311</v>
+        <v>0.002005064566531594</v>
       </c>
       <c r="T9">
-        <v>0.007141799918715311</v>
+        <v>0.002005064566531594</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>92.04377804750619</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H10">
-        <v>92.04377804750619</v>
+        <v>305.170493</v>
       </c>
       <c r="I10">
-        <v>0.2302333724246423</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J10">
-        <v>0.2302333724246423</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.43851807629244</v>
+        <v>6.767036</v>
       </c>
       <c r="N10">
-        <v>6.43851807629244</v>
+        <v>20.301108</v>
       </c>
       <c r="O10">
-        <v>0.9594020047918491</v>
+        <v>0.9301178303340504</v>
       </c>
       <c r="P10">
-        <v>0.9594020047918491</v>
+        <v>0.9301178303340503</v>
       </c>
       <c r="Q10">
-        <v>592.6255287691179</v>
+        <v>688.3665707562493</v>
       </c>
       <c r="R10">
-        <v>592.6255287691179</v>
+        <v>6195.299136806243</v>
       </c>
       <c r="S10">
-        <v>0.2208863590741902</v>
+        <v>0.2242652079961382</v>
       </c>
       <c r="T10">
-        <v>0.2208863590741902</v>
+        <v>0.2242652079961382</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>92.04377804750619</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H11">
-        <v>92.04377804750619</v>
+        <v>305.170493</v>
       </c>
       <c r="I11">
-        <v>0.2302333724246423</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J11">
-        <v>0.2302333724246423</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.272451928079538</v>
+        <v>0.3872683333333333</v>
       </c>
       <c r="N11">
-        <v>0.272451928079538</v>
+        <v>1.161805</v>
       </c>
       <c r="O11">
-        <v>0.0405979952081509</v>
+        <v>0.0532293875719124</v>
       </c>
       <c r="P11">
-        <v>0.0405979952081509</v>
+        <v>0.0532293875719124</v>
       </c>
       <c r="Q11">
-        <v>25.07750479676812</v>
+        <v>39.39428940220722</v>
       </c>
       <c r="R11">
-        <v>25.07750479676812</v>
+        <v>354.5486046198649</v>
       </c>
       <c r="S11">
-        <v>0.009347013350452051</v>
+        <v>0.01283439504759806</v>
       </c>
       <c r="T11">
-        <v>0.009347013350452051</v>
+        <v>0.01283439504759806</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,1233 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.2695649589919</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H12">
-        <v>46.2695649589919</v>
+        <v>226.665371</v>
       </c>
       <c r="I12">
-        <v>0.1157362095201218</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J12">
-        <v>0.1157362095201218</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>6.43851807629244</v>
+        <v>0.04182166666666667</v>
       </c>
       <c r="N12">
-        <v>6.43851807629244</v>
+        <v>0.125465</v>
       </c>
       <c r="O12">
-        <v>0.9594020047918491</v>
+        <v>0.00574831844561694</v>
       </c>
       <c r="P12">
-        <v>0.9594020047918491</v>
+        <v>0.00574831844561694</v>
       </c>
       <c r="Q12">
-        <v>297.9074303706566</v>
+        <v>3.159841196946111</v>
       </c>
       <c r="R12">
-        <v>297.9074303706566</v>
+        <v>28.438570772515</v>
       </c>
       <c r="S12">
-        <v>0.1110375514406143</v>
+        <v>0.00102945505109198</v>
       </c>
       <c r="T12">
-        <v>0.1110375514406143</v>
+        <v>0.00102945505109198</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>75.55512366666666</v>
+      </c>
+      <c r="H13">
+        <v>226.665371</v>
+      </c>
+      <c r="I13">
+        <v>0.179088034323661</v>
+      </c>
+      <c r="J13">
+        <v>0.179088034323661</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01883366666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.056501</v>
+      </c>
+      <c r="O13">
+        <v>0.002588656123188162</v>
+      </c>
+      <c r="P13">
+        <v>0.002588656123188162</v>
+      </c>
+      <c r="Q13">
+        <v>1.422980014096778</v>
+      </c>
+      <c r="R13">
+        <v>12.806820126871</v>
+      </c>
+      <c r="S13">
+        <v>0.0004635973366416769</v>
+      </c>
+      <c r="T13">
+        <v>0.0004635973366416769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>75.55512366666666</v>
+      </c>
+      <c r="H14">
+        <v>226.665371</v>
+      </c>
+      <c r="I14">
+        <v>0.179088034323661</v>
+      </c>
+      <c r="J14">
+        <v>0.179088034323661</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06050133333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.181504</v>
+      </c>
+      <c r="O14">
+        <v>0.008315807525232193</v>
+      </c>
+      <c r="P14">
+        <v>0.008315807525232193</v>
+      </c>
+      <c r="Q14">
+        <v>4.571185721998222</v>
+      </c>
+      <c r="R14">
+        <v>41.140671497984</v>
+      </c>
+      <c r="S14">
+        <v>0.001489261623507742</v>
+      </c>
+      <c r="T14">
+        <v>0.001489261623507742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>75.55512366666666</v>
+      </c>
+      <c r="H15">
+        <v>226.665371</v>
+      </c>
+      <c r="I15">
+        <v>0.179088034323661</v>
+      </c>
+      <c r="J15">
+        <v>0.179088034323661</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.767036</v>
+      </c>
+      <c r="N15">
+        <v>20.301108</v>
+      </c>
+      <c r="O15">
+        <v>0.9301178303340504</v>
+      </c>
+      <c r="P15">
+        <v>0.9301178303340503</v>
+      </c>
+      <c r="Q15">
+        <v>511.2842418367853</v>
+      </c>
+      <c r="R15">
+        <v>4601.558176531068</v>
+      </c>
+      <c r="S15">
+        <v>0.1665729739239136</v>
+      </c>
+      <c r="T15">
+        <v>0.1665729739239135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>75.55512366666666</v>
+      </c>
+      <c r="H16">
+        <v>226.665371</v>
+      </c>
+      <c r="I16">
+        <v>0.179088034323661</v>
+      </c>
+      <c r="J16">
+        <v>0.179088034323661</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3872683333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.161805</v>
+      </c>
+      <c r="O16">
+        <v>0.0532293875719124</v>
+      </c>
+      <c r="P16">
+        <v>0.0532293875719124</v>
+      </c>
+      <c r="Q16">
+        <v>29.26010681718389</v>
+      </c>
+      <c r="R16">
+        <v>263.340961354655</v>
+      </c>
+      <c r="S16">
+        <v>0.009532746388506104</v>
+      </c>
+      <c r="T16">
+        <v>0.009532746388506104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>70.99828599999999</v>
+      </c>
+      <c r="H17">
+        <v>212.994858</v>
+      </c>
+      <c r="I17">
+        <v>0.1682869786063055</v>
+      </c>
+      <c r="J17">
+        <v>0.1682869786063056</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.04182166666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.125465</v>
+      </c>
+      <c r="O17">
+        <v>0.00574831844561694</v>
+      </c>
+      <c r="P17">
+        <v>0.00574831844561694</v>
+      </c>
+      <c r="Q17">
+        <v>2.969266650996667</v>
+      </c>
+      <c r="R17">
+        <v>26.72339985897</v>
+      </c>
+      <c r="S17">
+        <v>0.0009673671432797695</v>
+      </c>
+      <c r="T17">
+        <v>0.0009673671432797696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>70.99828599999999</v>
+      </c>
+      <c r="H18">
+        <v>212.994858</v>
+      </c>
+      <c r="I18">
+        <v>0.1682869786063055</v>
+      </c>
+      <c r="J18">
+        <v>0.1682869786063056</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01883366666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.056501</v>
+      </c>
+      <c r="O18">
+        <v>0.002588656123188162</v>
+      </c>
+      <c r="P18">
+        <v>0.002588656123188162</v>
+      </c>
+      <c r="Q18">
+        <v>1.337158052428667</v>
+      </c>
+      <c r="R18">
+        <v>12.034422471858</v>
+      </c>
+      <c r="S18">
+        <v>0.000435637117622048</v>
+      </c>
+      <c r="T18">
+        <v>0.0004356371176220481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>70.99828599999999</v>
+      </c>
+      <c r="H19">
+        <v>212.994858</v>
+      </c>
+      <c r="I19">
+        <v>0.1682869786063055</v>
+      </c>
+      <c r="J19">
+        <v>0.1682869786063056</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06050133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.181504</v>
+      </c>
+      <c r="O19">
+        <v>0.008315807525232193</v>
+      </c>
+      <c r="P19">
+        <v>0.008315807525232193</v>
+      </c>
+      <c r="Q19">
+        <v>4.295490967381332</v>
+      </c>
+      <c r="R19">
+        <v>38.659418706432</v>
+      </c>
+      <c r="S19">
+        <v>0.001399442123092905</v>
+      </c>
+      <c r="T19">
+        <v>0.001399442123092905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>70.99828599999999</v>
+      </c>
+      <c r="H20">
+        <v>212.994858</v>
+      </c>
+      <c r="I20">
+        <v>0.1682869786063055</v>
+      </c>
+      <c r="J20">
+        <v>0.1682869786063056</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.767036</v>
+      </c>
+      <c r="N20">
+        <v>20.301108</v>
+      </c>
+      <c r="O20">
+        <v>0.9301178303340504</v>
+      </c>
+      <c r="P20">
+        <v>0.9301178303340503</v>
+      </c>
+      <c r="Q20">
+        <v>480.447957300296</v>
+      </c>
+      <c r="R20">
+        <v>4324.031615702664</v>
+      </c>
+      <c r="S20">
+        <v>0.1565267194147697</v>
+      </c>
+      <c r="T20">
+        <v>0.1565267194147697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>46.2695649589919</v>
-      </c>
-      <c r="H13">
-        <v>46.2695649589919</v>
-      </c>
-      <c r="I13">
-        <v>0.1157362095201218</v>
-      </c>
-      <c r="J13">
-        <v>0.1157362095201218</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.272451928079538</v>
-      </c>
-      <c r="N13">
-        <v>0.272451928079538</v>
-      </c>
-      <c r="O13">
-        <v>0.0405979952081509</v>
-      </c>
-      <c r="P13">
-        <v>0.0405979952081509</v>
-      </c>
-      <c r="Q13">
-        <v>12.60623218447877</v>
-      </c>
-      <c r="R13">
-        <v>12.60623218447877</v>
-      </c>
-      <c r="S13">
-        <v>0.004698658079507452</v>
-      </c>
-      <c r="T13">
-        <v>0.004698658079507452</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>70.99828599999999</v>
+      </c>
+      <c r="H21">
+        <v>212.994858</v>
+      </c>
+      <c r="I21">
+        <v>0.1682869786063055</v>
+      </c>
+      <c r="J21">
+        <v>0.1682869786063056</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3872683333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.161805</v>
+      </c>
+      <c r="O21">
+        <v>0.0532293875719124</v>
+      </c>
+      <c r="P21">
+        <v>0.0532293875719124</v>
+      </c>
+      <c r="Q21">
+        <v>27.49538788874333</v>
+      </c>
+      <c r="R21">
+        <v>247.45849099869</v>
+      </c>
+      <c r="S21">
+        <v>0.008957812807541167</v>
+      </c>
+      <c r="T21">
+        <v>0.008957812807541168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>93.51473466666668</v>
+      </c>
+      <c r="H22">
+        <v>280.544204</v>
+      </c>
+      <c r="I22">
+        <v>0.2216576348367576</v>
+      </c>
+      <c r="J22">
+        <v>0.2216576348367575</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.04182166666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.125465</v>
+      </c>
+      <c r="O22">
+        <v>0.00574831844561694</v>
+      </c>
+      <c r="P22">
+        <v>0.00574831844561694</v>
+      </c>
+      <c r="Q22">
+        <v>3.910942061651112</v>
+      </c>
+      <c r="R22">
+        <v>35.19847855486</v>
+      </c>
+      <c r="S22">
+        <v>0.001274158670943958</v>
+      </c>
+      <c r="T22">
+        <v>0.001274158670943957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>93.51473466666668</v>
+      </c>
+      <c r="H23">
+        <v>280.544204</v>
+      </c>
+      <c r="I23">
+        <v>0.2216576348367576</v>
+      </c>
+      <c r="J23">
+        <v>0.2216576348367575</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01883366666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.056501</v>
+      </c>
+      <c r="O23">
+        <v>0.002588656123188162</v>
+      </c>
+      <c r="P23">
+        <v>0.002588656123188162</v>
+      </c>
+      <c r="Q23">
+        <v>1.761225341133778</v>
+      </c>
+      <c r="R23">
+        <v>15.851028070204</v>
+      </c>
+      <c r="S23">
+        <v>0.0005737953936715781</v>
+      </c>
+      <c r="T23">
+        <v>0.0005737953936715781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>93.51473466666668</v>
+      </c>
+      <c r="H24">
+        <v>280.544204</v>
+      </c>
+      <c r="I24">
+        <v>0.2216576348367576</v>
+      </c>
+      <c r="J24">
+        <v>0.2216576348367575</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06050133333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.181504</v>
+      </c>
+      <c r="O24">
+        <v>0.008315807525232193</v>
+      </c>
+      <c r="P24">
+        <v>0.008315807525232193</v>
+      </c>
+      <c r="Q24">
+        <v>5.657766133646223</v>
+      </c>
+      <c r="R24">
+        <v>50.91989520281601</v>
+      </c>
+      <c r="S24">
+        <v>0.001843262227800678</v>
+      </c>
+      <c r="T24">
+        <v>0.001843262227800678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>93.51473466666668</v>
+      </c>
+      <c r="H25">
+        <v>280.544204</v>
+      </c>
+      <c r="I25">
+        <v>0.2216576348367576</v>
+      </c>
+      <c r="J25">
+        <v>0.2216576348367575</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.767036</v>
+      </c>
+      <c r="N25">
+        <v>20.301108</v>
+      </c>
+      <c r="O25">
+        <v>0.9301178303340504</v>
+      </c>
+      <c r="P25">
+        <v>0.9301178303340503</v>
+      </c>
+      <c r="Q25">
+        <v>632.8175760197814</v>
+      </c>
+      <c r="R25">
+        <v>5695.358184178032</v>
+      </c>
+      <c r="S25">
+        <v>0.2061677183913422</v>
+      </c>
+      <c r="T25">
+        <v>0.2061677183913421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>93.51473466666668</v>
+      </c>
+      <c r="H26">
+        <v>280.544204</v>
+      </c>
+      <c r="I26">
+        <v>0.2216576348367576</v>
+      </c>
+      <c r="J26">
+        <v>0.2216576348367575</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3872683333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.161805</v>
+      </c>
+      <c r="O26">
+        <v>0.0532293875719124</v>
+      </c>
+      <c r="P26">
+        <v>0.0532293875719124</v>
+      </c>
+      <c r="Q26">
+        <v>36.21529543646889</v>
+      </c>
+      <c r="R26">
+        <v>325.9376589282201</v>
+      </c>
+      <c r="S26">
+        <v>0.0117987001529992</v>
+      </c>
+      <c r="T26">
+        <v>0.0117987001529992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>48.49196966666667</v>
+      </c>
+      <c r="H27">
+        <v>145.475909</v>
+      </c>
+      <c r="I27">
+        <v>0.114940339008634</v>
+      </c>
+      <c r="J27">
+        <v>0.114940339008634</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.04182166666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.125465</v>
+      </c>
+      <c r="O27">
+        <v>0.00574831844561694</v>
+      </c>
+      <c r="P27">
+        <v>0.00574831844561694</v>
+      </c>
+      <c r="Q27">
+        <v>2.028014991409445</v>
+      </c>
+      <c r="R27">
+        <v>18.252134922685</v>
+      </c>
+      <c r="S27">
+        <v>0.000660713670868795</v>
+      </c>
+      <c r="T27">
+        <v>0.0006607136708687949</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>48.49196966666667</v>
+      </c>
+      <c r="H28">
+        <v>145.475909</v>
+      </c>
+      <c r="I28">
+        <v>0.114940339008634</v>
+      </c>
+      <c r="J28">
+        <v>0.114940339008634</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01883366666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.056501</v>
+      </c>
+      <c r="O28">
+        <v>0.002588656123188162</v>
+      </c>
+      <c r="P28">
+        <v>0.002588656123188162</v>
+      </c>
+      <c r="Q28">
+        <v>0.9132815927121113</v>
+      </c>
+      <c r="R28">
+        <v>8.219534334409001</v>
+      </c>
+      <c r="S28">
+        <v>0.0002975410123760235</v>
+      </c>
+      <c r="T28">
+        <v>0.0002975410123760235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>48.49196966666667</v>
+      </c>
+      <c r="H29">
+        <v>145.475909</v>
+      </c>
+      <c r="I29">
+        <v>0.114940339008634</v>
+      </c>
+      <c r="J29">
+        <v>0.114940339008634</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.06050133333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.181504</v>
+      </c>
+      <c r="O29">
+        <v>0.008315807525232193</v>
+      </c>
+      <c r="P29">
+        <v>0.008315807525232193</v>
+      </c>
+      <c r="Q29">
+        <v>2.933828820792889</v>
+      </c>
+      <c r="R29">
+        <v>26.404459387136</v>
+      </c>
+      <c r="S29">
+        <v>0.0009558217360807378</v>
+      </c>
+      <c r="T29">
+        <v>0.0009558217360807377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>48.49196966666667</v>
+      </c>
+      <c r="H30">
+        <v>145.475909</v>
+      </c>
+      <c r="I30">
+        <v>0.114940339008634</v>
+      </c>
+      <c r="J30">
+        <v>0.114940339008634</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.767036</v>
+      </c>
+      <c r="N30">
+        <v>20.301108</v>
+      </c>
+      <c r="O30">
+        <v>0.9301178303340504</v>
+      </c>
+      <c r="P30">
+        <v>0.9301178303340503</v>
+      </c>
+      <c r="Q30">
+        <v>328.1469044452414</v>
+      </c>
+      <c r="R30">
+        <v>2953.322140007172</v>
+      </c>
+      <c r="S30">
+        <v>0.1069080587365709</v>
+      </c>
+      <c r="T30">
+        <v>0.1069080587365708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>48.49196966666667</v>
+      </c>
+      <c r="H31">
+        <v>145.475909</v>
+      </c>
+      <c r="I31">
+        <v>0.114940339008634</v>
+      </c>
+      <c r="J31">
+        <v>0.114940339008634</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.3872683333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.161805</v>
+      </c>
+      <c r="O31">
+        <v>0.0532293875719124</v>
+      </c>
+      <c r="P31">
+        <v>0.0532293875719124</v>
+      </c>
+      <c r="Q31">
+        <v>18.77940427286056</v>
+      </c>
+      <c r="R31">
+        <v>169.014638455745</v>
+      </c>
+      <c r="S31">
+        <v>0.006118203852737579</v>
+      </c>
+      <c r="T31">
+        <v>0.006118203852737578</v>
       </c>
     </row>
   </sheetData>
